--- a/tasklogs/IAA-Tasklog-Gruppe11-JannickGottschalk.xlsx
+++ b/tasklogs/IAA-Tasklog-Gruppe11-JannickGottschalk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repos\NAK\IAA\iaa_hausarbeit_nicht_stolarczyk_pick_gottschalk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jannick\IdeaProjects\iaa_hausarbeit_nicht_stolarczyk_pick_gottschalk\tasklogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F7E90-93AC-44C8-B874-F2279C5202AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BCD84B-90F5-4A16-9F00-17DFFE324E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasklog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Tag</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Fehlende Javadocs ergänzen</t>
+  </si>
+  <si>
+    <t>06-07.11.2025</t>
+  </si>
+  <si>
+    <t>30.10-01.11.2025</t>
+  </si>
+  <si>
+    <t>UML überarbeiten und Bugfixing</t>
   </si>
 </sst>
 </file>
@@ -294,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -346,6 +355,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,23 +641,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -656,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16">
         <v>45955</v>
       </c>
@@ -667,7 +679,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="17">
         <v>45955</v>
       </c>
@@ -675,10 +687,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17">
         <v>45956</v>
       </c>
@@ -689,7 +701,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17">
         <v>45956</v>
       </c>
@@ -700,7 +712,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="17">
         <v>45957</v>
       </c>
@@ -711,7 +723,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="17">
         <v>45957</v>
       </c>
@@ -722,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="17">
         <v>45957</v>
       </c>
@@ -733,7 +745,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17">
         <v>45957</v>
       </c>
@@ -744,7 +756,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17">
         <v>45958</v>
       </c>
@@ -755,7 +767,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17">
         <v>45958</v>
       </c>
@@ -763,10 +775,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17">
         <v>45960</v>
       </c>
@@ -777,7 +789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17">
         <v>45960</v>
       </c>
@@ -788,7 +800,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17">
         <v>45960</v>
       </c>
@@ -799,7 +811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17">
         <v>45960</v>
       </c>
@@ -810,7 +822,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17">
         <v>45960</v>
       </c>
@@ -821,18 +833,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>45962</v>
+    <row r="18" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17">
         <v>45962</v>
       </c>
@@ -843,7 +855,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17">
         <v>45962</v>
       </c>
@@ -854,7 +866,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="17">
         <v>45965</v>
       </c>
@@ -865,7 +877,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17">
         <v>45965</v>
       </c>
@@ -876,7 +888,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17">
         <v>45965</v>
       </c>
@@ -887,7 +899,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17">
         <v>45966</v>
       </c>
@@ -898,7 +910,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="17">
         <v>45966</v>
       </c>
@@ -909,7 +921,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
         <v>45967</v>
       </c>
@@ -920,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17">
         <v>45967</v>
       </c>
@@ -931,7 +943,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
         <v>45967</v>
       </c>
@@ -942,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17">
         <v>45967</v>
       </c>
@@ -953,7 +965,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17">
         <v>45967</v>
       </c>
@@ -964,18 +976,18 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>45968</v>
+    <row r="31" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17">
         <v>45968</v>
       </c>
@@ -986,7 +998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="17">
         <v>45968</v>
       </c>
@@ -994,10 +1006,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="6">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17">
         <v>45968</v>
       </c>
@@ -1005,10 +1017,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="6">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17">
         <v>45968</v>
       </c>
@@ -1019,87 +1031,94 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="17">
+        <v>45976</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
     </row>
-    <row r="50" spans="1:3" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="13"/>
       <c r="B50" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="15">
         <f>SUM(C3:C49)</f>
-        <v>58.5</v>
+        <v>70.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>